--- a/03测试用例/测试用例v1.0_电子零售会员_v1.0.xlsx
+++ b/03测试用例/测试用例v1.0_电子零售会员_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订说明" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="228">
   <si>
     <t>测试用例编写模板</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>目的:正确填写输入项添加积分累计规则规则成功</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,18 +765,6 @@
       <b/>
       <sz val="10.5"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -819,24 +810,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,106 +831,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,6 +855,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -979,13 +910,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,7 +986,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,73 +1058,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,7 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,13 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,37 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,13 +1148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,16 +1348,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1413,13 +1396,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1427,23 +1414,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,166 +1437,167 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1642,135 +1615,108 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,97 +2045,97 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
   <cols>
-    <col min="6" max="6" width="15.875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.8796296296296" style="29" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="29" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="6:9">
-      <c r="F2" s="40" t="s">
+    <row r="2" ht="21.15" spans="6:9">
+      <c r="F2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="6:9">
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="6:9">
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="36">
         <v>42779</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="6:9">
-      <c r="F5" s="45"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="6:9">
-      <c r="F6" s="45"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="6:9">
-      <c r="F7" s="45"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="6:9">
-      <c r="F8" s="45"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="6:9">
-      <c r="F9" s="45"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="6:9">
-      <c r="F10" s="45"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="6:9">
-      <c r="F11" s="45"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" ht="21" spans="6:9">
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" ht="21.15" spans="6:9">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2210,203 +2156,203 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:1">
-      <c r="A1" s="34" t="s">
+    <row r="1" ht="25.8" spans="1:1">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="2:10">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" ht="18" spans="2:10">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" ht="18" spans="2:10">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" ht="18.75" spans="1:10">
-      <c r="A13" s="37" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" ht="17.4" spans="2:10">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" ht="17.4" spans="2:10">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" ht="17.4" spans="1:10">
+      <c r="A13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" ht="18.75" spans="2:10">
-      <c r="B14" s="38" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" ht="17.4" spans="2:10">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" ht="18.75" spans="2:10">
-      <c r="B15" s="38" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" ht="17.4" spans="2:10">
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" ht="18.75" spans="2:10">
-      <c r="B16" s="38" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" ht="17.4" spans="2:10">
+      <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" ht="18.75" spans="2:10">
-      <c r="B17" s="38" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" ht="17.4" spans="2:10">
+      <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" ht="18.75" spans="2:2">
-      <c r="B18" s="38" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" ht="17.4" spans="2:2">
+      <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="18.75" spans="2:2">
-      <c r="B19" s="38" t="s">
+    <row r="19" ht="17.4" spans="2:2">
+      <c r="B19" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="2:2">
-      <c r="B20" s="38" t="s">
+    <row r="20" ht="17.4" spans="2:2">
+      <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2422,3101 +2368,3090 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="41.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1296296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41.3796296296296" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.8796296296296" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A2" s="9" t="str">
+    <row r="2" s="1" customFormat="1" ht="82.8" spans="1:10">
+      <c r="A2" s="8" t="str">
         <f>TEXT(IF(B2="","",COUNTA($B$1:B2)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>43315</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:10">
-      <c r="A3" s="15" t="str">
+    <row r="3" ht="55.2" spans="1:10">
+      <c r="A3" s="13" t="str">
         <f>TEXT(IF(B3="","",COUNTA($B$1:B3)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="20" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15" t="str">
+    <row r="4" ht="27.6" spans="1:10">
+      <c r="A4" s="13" t="str">
         <f>TEXT(IF(B4="","",COUNTA($B$1:B4)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="20" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" ht="27" spans="1:10">
-      <c r="A5" s="15" t="str">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" ht="27.6" spans="1:10">
+      <c r="A5" s="13" t="str">
         <f>TEXT(IF(B5="","",COUNTA($B$1:B5)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="20" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="15" t="str">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" ht="27.6" spans="1:10">
+      <c r="A6" s="13" t="str">
         <f>TEXT(IF(B6="","",COUNTA($B$1:B6)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="20" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A7" s="9" t="str">
+    <row r="7" s="1" customFormat="1" ht="82.8" spans="1:10">
+      <c r="A7" s="8" t="str">
         <f>TEXT(IF(B7="","",COUNTA($B$1:B20)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0004</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>43315</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="54" spans="1:10">
-      <c r="A8" s="15" t="str">
+    <row r="8" s="1" customFormat="1" ht="55.2" spans="1:10">
+      <c r="A8" s="13" t="str">
         <f>TEXT(IF(B8="","",COUNTA($B$1:B20)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="25" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:10">
-      <c r="A9" s="15" t="str">
+    <row r="9" s="1" customFormat="1" ht="27.6" spans="1:10">
+      <c r="A9" s="13" t="str">
         <f>TEXT(IF(B9="","",COUNTA($B$1:B20)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="15" t="str">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="13" t="str">
         <f>TEXT(IF(B10="","",COUNTA($B$1:B20)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A11" s="9" t="str">
+    <row r="11" s="1" customFormat="1" ht="82.8" spans="1:10">
+      <c r="A11" s="8" t="str">
         <f>TEXT(IF(B11="","",COUNTA($B$1:B24)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0005</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>43315</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="54" spans="2:10">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="25" t="s">
+    <row r="12" s="1" customFormat="1" ht="55.2" spans="2:10">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:10">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="25" t="s">
+    <row r="13" s="1" customFormat="1" ht="27.6" spans="2:10">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:10">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="25" t="s">
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27.6" spans="2:10">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="40.5" spans="3:10">
-      <c r="C15" s="26"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25" t="s">
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="55.2" spans="3:10">
+      <c r="C15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A16" s="9" t="str">
+    <row r="16" s="1" customFormat="1" ht="82.8" spans="1:10">
+      <c r="A16" s="8" t="str">
         <f>TEXT(IF(B16="","",COUNTA($B$1:B16)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0004</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>43315</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="54" spans="1:10">
-      <c r="A17" s="15" t="str">
+    <row r="17" s="1" customFormat="1" ht="55.2" spans="1:10">
+      <c r="A17" s="13" t="str">
         <f>TEXT(IF(B17="","",COUNTA($B$1:B17)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="25" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:10">
-      <c r="A18" s="15" t="str">
+    <row r="18" s="1" customFormat="1" ht="27.6" spans="1:10">
+      <c r="A18" s="13" t="str">
         <f>TEXT(IF(B18="","",COUNTA($B$1:B18)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="25" t="s">
+      <c r="C18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="27" spans="1:10">
-      <c r="A19" s="15" t="str">
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="27.6" spans="1:10">
+      <c r="A19" s="13" t="str">
         <f>TEXT(IF(B19="","",COUNTA($B$1:B19)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A20" s="15" t="str">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="55.2" spans="1:10">
+      <c r="A20" s="13" t="str">
         <f>TEXT(IF(B20="","",COUNTA($B$1:B20)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25" t="s">
+      <c r="C20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A21" s="9" t="str">
+    <row r="21" s="1" customFormat="1" ht="82.8" spans="1:10">
+      <c r="A21" s="8" t="str">
         <f>TEXT(IF(B21="","",COUNTA($B$1:B21)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0005</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>43315</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="54" spans="1:10">
-      <c r="A22" s="15" t="str">
+    <row r="22" s="1" customFormat="1" ht="55.2" spans="1:10">
+      <c r="A22" s="13" t="str">
         <f>TEXT(IF(B22="","",COUNTA($B$1:B22)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="25" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="27" spans="1:10">
-      <c r="A23" s="15" t="str">
+    <row r="23" s="1" customFormat="1" ht="27.6" spans="1:10">
+      <c r="A23" s="13" t="str">
         <f>TEXT(IF(B23="","",COUNTA($B$1:B23)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="25" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:10">
-      <c r="A24" s="15" t="str">
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:10">
+      <c r="A24" s="13" t="str">
         <f>TEXT(IF(B24="","",COUNTA($B$1:B24)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25" t="s">
+      <c r="C24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="54" spans="1:10">
-      <c r="A25" s="9" t="str">
+    <row r="25" s="1" customFormat="1" ht="69" spans="1:10">
+      <c r="A25" s="8" t="str">
         <f>TEXT(IF(B25="","",COUNTA($B$1:B25)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0006</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>43315</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="67.5" spans="1:10">
-      <c r="A26" s="15" t="str">
+    <row r="26" s="1" customFormat="1" ht="69" spans="1:10">
+      <c r="A26" s="13" t="str">
         <f>TEXT(IF(B26="","",COUNTA($B$1:B26)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v/>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25" t="s">
+      <c r="C26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A27" s="10" t="str">
+    <row r="27" s="1" customFormat="1" ht="55.2" spans="1:10">
+      <c r="A27" s="9" t="str">
         <f>TEXT(IF(B27="","",COUNTA($B$1:B27)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0007</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>43315</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="8:10">
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="8:10">
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="8:10">
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="8:10">
-      <c r="H31" s="31" t="s">
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" ht="27.6" spans="8:10">
+      <c r="H31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" ht="27" spans="8:10">
-      <c r="H32" s="31" t="s">
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" ht="27.6" spans="8:10">
+      <c r="H32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="8:10">
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="8:10">
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="8:10">
-      <c r="H35" s="31" t="s">
+    <row r="35" ht="27.6" spans="8:10">
+      <c r="H35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" ht="27" spans="8:10">
-      <c r="H36" s="31" t="s">
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" ht="27.6" spans="8:10">
+      <c r="H36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" ht="27" spans="8:10">
-      <c r="H37" s="31" t="s">
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" ht="27.6" spans="8:10">
+      <c r="H37" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" ht="40.5" spans="1:10">
-      <c r="A38" s="9" t="str">
+    <row r="38" ht="55.2" spans="1:10">
+      <c r="A38" s="8" t="str">
         <f>TEXT(IF(B38="","",COUNTA($B$1:B38)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0008</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>43315</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="8:10">
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="8:10">
-      <c r="H40" s="31" t="s">
+      <c r="H40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="8:10">
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J41" s="19"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="42" spans="8:10">
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="8:10">
-      <c r="H43" s="31" t="s">
+      <c r="H43" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J43" s="19"/>
-    </row>
-    <row r="44" ht="27" spans="8:10">
-      <c r="H44" s="31" t="s">
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" ht="27.6" spans="8:10">
+      <c r="H44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:10">
-      <c r="A45" s="9" t="str">
+    <row r="45" ht="55.2" spans="1:10">
+      <c r="A45" s="8" t="str">
         <f>TEXT(IF(B45="","",COUNTA($B$1:B45)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0009</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>43315</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="8:10">
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="8:10">
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="8:10">
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J48" s="19"/>
-    </row>
-    <row r="49" ht="27" spans="8:10">
-      <c r="H49" s="31" t="s">
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" ht="27.6" spans="8:10">
+      <c r="H49" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="19"/>
-    </row>
-    <row r="50" spans="8:10">
-      <c r="H50" s="31" t="s">
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" ht="27.6" spans="8:10">
+      <c r="H50" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" ht="27" spans="8:10">
-      <c r="H51" s="31" t="s">
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" ht="27.6" spans="8:10">
+      <c r="H51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" ht="40.5" spans="1:10">
-      <c r="A52" s="9" t="str">
+    <row r="52" ht="55.2" spans="1:10">
+      <c r="A52" s="8" t="str">
         <f>TEXT(IF(B52="","",COUNTA($B$1:B52)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0010</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>43315</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="8:10">
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="8:10">
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="19" t="s">
+      <c r="I54" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="8:10">
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="8:10">
-      <c r="H56" s="31" t="s">
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" ht="27.6" spans="8:10">
+      <c r="H56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="19" t="s">
+      <c r="I56" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" ht="27" spans="8:10">
-      <c r="H57" s="31" t="s">
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" ht="27.6" spans="8:10">
+      <c r="H57" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" ht="27" spans="8:10">
-      <c r="H58" s="31" t="s">
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" ht="27.6" spans="8:10">
+      <c r="H58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" ht="40.5" spans="1:10">
-      <c r="A59" s="9" t="str">
+    <row r="59" ht="55.2" spans="1:10">
+      <c r="A59" s="8" t="str">
         <f>TEXT(IF(B59="","",COUNTA($B$1:B59)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0011</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>43315</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="8:10">
-      <c r="H60" s="31" t="s">
+      <c r="H60" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="61" spans="8:10">
-      <c r="H61" s="31" t="s">
+      <c r="H61" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="19" t="s">
+      <c r="I61" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="8:10">
-      <c r="H62" s="31" t="s">
+      <c r="H62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="19" t="s">
+      <c r="I62" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="19"/>
-    </row>
-    <row r="63" spans="8:10">
-      <c r="H63" s="31" t="s">
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" ht="27.6" spans="8:10">
+      <c r="H63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="19" t="s">
+      <c r="I63" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J63" s="19"/>
-    </row>
-    <row r="64" ht="27" spans="8:10">
-      <c r="H64" s="31" t="s">
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" ht="27.6" spans="8:10">
+      <c r="H64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="I64" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="J64" s="19"/>
-    </row>
-    <row r="65" ht="27" spans="8:10">
-      <c r="H65" s="31" t="s">
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" ht="41.4" spans="8:10">
+      <c r="H65" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" ht="40.5" spans="1:10">
-      <c r="A66" s="9" t="str">
+    <row r="66" ht="55.2" spans="1:10">
+      <c r="A66" s="8" t="str">
         <f>TEXT(IF(B66="","",COUNTA($B$1:B66)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0012</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>43315</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="67" spans="8:10">
-      <c r="H67" s="33" t="s">
+      <c r="H67" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="8:10">
-      <c r="H68" s="33" t="s">
+    <row r="68" ht="41.4" spans="8:10">
+      <c r="H68" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="I68" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" ht="40.5" spans="1:10">
-      <c r="A69" s="9" t="str">
+    <row r="69" ht="55.2" spans="1:10">
+      <c r="A69" s="8" t="str">
         <f>TEXT(IF(B69="","",COUNTA($B$1:B69)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0013</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>43315</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="70" spans="8:10">
-      <c r="H70" s="31" t="s">
+      <c r="H70" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="19" t="s">
+      <c r="I70" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="8:10">
-      <c r="H71" s="31" t="s">
+    <row r="71" ht="27.6" spans="8:10">
+      <c r="H71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I71" s="19" t="s">
+      <c r="I71" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" ht="40.5" spans="1:10">
-      <c r="A72" s="9" t="str">
+    <row r="72" ht="55.2" spans="1:10">
+      <c r="A72" s="8" t="str">
         <f>TEXT(IF(B72="","",COUNTA($B$1:B72)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0014</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <v>43315</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="73" spans="8:10">
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I73" s="19" t="s">
+      <c r="I73" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="J73" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="8:10">
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="19" t="s">
+      <c r="I74" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J74" s="19"/>
-    </row>
-    <row r="75" ht="27" spans="8:10">
-      <c r="H75" s="31" t="s">
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" ht="41.4" spans="8:10">
+      <c r="H75" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="19" t="s">
+      <c r="I75" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:10">
-      <c r="A76" s="9" t="str">
+    <row r="76" ht="55.2" spans="1:10">
+      <c r="A76" s="8" t="str">
         <f>TEXT(IF(B76="","",COUNTA($B$1:B76)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0015</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>43315</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="77" spans="8:10">
-      <c r="H77" s="31" t="s">
+      <c r="H77" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="19" t="s">
+      <c r="I77" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="J77" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="78" spans="8:10">
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="19" t="s">
+      <c r="I78" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="J78" s="19"/>
-    </row>
-    <row r="79" ht="27" spans="8:10">
-      <c r="H79" s="31" t="s">
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" ht="41.4" spans="8:10">
+      <c r="H79" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="19" t="s">
+      <c r="I79" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J79" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" ht="40.5" spans="1:10">
-      <c r="A80" s="9" t="str">
+    <row r="80" ht="55.2" spans="1:10">
+      <c r="A80" s="8" t="str">
         <f>TEXT(IF(B80="","",COUNTA($B$1:B80)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0016</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>43315</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="81" spans="8:10">
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I81" s="19" t="s">
+      <c r="I81" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="J81" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="82" spans="8:10">
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="19" t="s">
+      <c r="I82" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J82" s="19"/>
-    </row>
-    <row r="83" ht="27" spans="8:10">
-      <c r="H83" s="31" t="s">
+      <c r="J82" s="17"/>
+    </row>
+    <row r="83" ht="41.4" spans="8:10">
+      <c r="H83" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="19" t="s">
+      <c r="I83" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J83" s="19" t="s">
+      <c r="J83" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" ht="40.5" spans="1:10">
-      <c r="A84" s="9" t="str">
+    <row r="84" ht="55.2" spans="1:10">
+      <c r="A84" s="8" t="str">
         <f>TEXT(IF(B84="","",COUNTA($B$1:B84)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0017</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>43315</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J84" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="85" spans="8:10">
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I85" s="19" t="s">
+      <c r="I85" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J85" s="19" t="s">
+      <c r="J85" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="86" spans="8:10">
-      <c r="H86" s="31" t="s">
+      <c r="H86" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J86" s="19"/>
-    </row>
-    <row r="87" ht="27" spans="8:10">
-      <c r="H87" s="31" t="s">
+      <c r="J86" s="17"/>
+    </row>
+    <row r="87" ht="41.4" spans="8:10">
+      <c r="H87" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I87" s="19" t="s">
+      <c r="I87" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J87" s="19" t="s">
+      <c r="J87" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" ht="40.5" spans="1:10">
-      <c r="A88" s="9" t="str">
+    <row r="88" ht="55.2" spans="1:10">
+      <c r="A88" s="8" t="str">
         <f>TEXT(IF(B88="","",COUNTA($B$1:B88)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0018</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="11">
         <v>43315</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J88" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="89" spans="8:10">
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I89" s="19" t="s">
+      <c r="I89" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="8:10">
-      <c r="H90" s="31" t="s">
+      <c r="H90" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I90" s="19" t="s">
+      <c r="I90" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="J90" s="19"/>
-    </row>
-    <row r="91" ht="27" spans="8:10">
-      <c r="H91" s="31" t="s">
+      <c r="J90" s="17"/>
+    </row>
+    <row r="91" ht="41.4" spans="8:10">
+      <c r="H91" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I91" s="19" t="s">
+      <c r="I91" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="J91" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" ht="40.5" spans="1:10">
-      <c r="A92" s="9" t="str">
+    <row r="92" ht="55.2" spans="1:10">
+      <c r="A92" s="8" t="str">
         <f>TEXT(IF(B92="","",COUNTA($B$1:B92)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0019</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="11">
         <v>43315</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="93" spans="8:10">
-      <c r="H93" s="31" t="s">
+      <c r="H93" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I93" s="19" t="s">
+      <c r="I93" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J93" s="19" t="s">
+      <c r="J93" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="94" spans="8:10">
-      <c r="H94" s="31" t="s">
+      <c r="H94" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I94" s="19" t="s">
+      <c r="I94" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J94" s="19"/>
+      <c r="J94" s="17"/>
     </row>
     <row r="95" spans="8:10">
-      <c r="H95" s="31" t="s">
+      <c r="H95" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="19" t="s">
+      <c r="I95" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J95" s="19" t="s">
+      <c r="J95" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" ht="40.5" spans="1:10">
-      <c r="A96" s="9" t="str">
+    <row r="96" ht="55.2" spans="1:10">
+      <c r="A96" s="8" t="str">
         <f>TEXT(IF(B96="","",COUNTA($B$1:B96)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0020</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="11">
         <v>43315</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="J96" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="97" spans="8:10">
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I97" s="19" t="s">
+      <c r="I97" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J97" s="19" t="s">
+      <c r="J97" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="8:10">
-      <c r="H98" s="31" t="s">
+      <c r="H98" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I98" s="19" t="s">
+      <c r="I98" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J98" s="19"/>
+      <c r="J98" s="17"/>
     </row>
     <row r="99" spans="8:10">
-      <c r="H99" s="31" t="s">
+      <c r="H99" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I99" s="19" t="s">
+      <c r="I99" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J99" s="19" t="s">
+      <c r="J99" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" ht="40.5" spans="1:10">
-      <c r="A100" s="9" t="str">
+    <row r="100" ht="55.2" spans="1:10">
+      <c r="A100" s="8" t="str">
         <f>TEXT(IF(B100="","",COUNTA($B$1:B100)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0021</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="11">
         <v>43315</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="8:10">
-      <c r="H101" s="31" t="s">
+      <c r="H101" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I101" s="19" t="s">
+      <c r="I101" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="J101" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="102" spans="8:10">
-      <c r="H102" s="31" t="s">
+      <c r="H102" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I102" s="19" t="s">
+      <c r="I102" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J102" s="19"/>
-    </row>
-    <row r="103" ht="27" spans="8:10">
-      <c r="H103" s="31" t="s">
+      <c r="J102" s="17"/>
+    </row>
+    <row r="103" ht="27.6" spans="8:10">
+      <c r="H103" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I103" s="19" t="s">
+      <c r="I103" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J103" s="19" t="s">
+      <c r="J103" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="104" ht="40.5" spans="1:10">
-      <c r="A104" s="9" t="str">
+    <row r="104" ht="55.2" spans="1:10">
+      <c r="A104" s="8" t="str">
         <f>TEXT(IF(B104="","",COUNTA($B$1:B104)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0022</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="11">
         <v>43315</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="105" spans="8:10">
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I105" s="19" t="s">
+      <c r="I105" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J105" s="19" t="s">
+      <c r="J105" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="106" spans="8:10">
-      <c r="H106" s="31" t="s">
+      <c r="H106" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I106" s="19" t="s">
+      <c r="I106" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="J106" s="19"/>
-    </row>
-    <row r="107" ht="27" spans="8:10">
-      <c r="H107" s="31" t="s">
+      <c r="J106" s="17"/>
+    </row>
+    <row r="107" ht="27.6" spans="8:10">
+      <c r="H107" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I107" s="19" t="s">
+      <c r="I107" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="J107" s="19" t="s">
+      <c r="J107" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" ht="40.5" spans="1:10">
-      <c r="A108" s="9" t="str">
+    <row r="108" ht="55.2" spans="1:10">
+      <c r="A108" s="8" t="str">
         <f>TEXT(IF(B108="","",COUNTA($B$1:B108)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0023</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="11">
         <v>43315</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J108" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="8:10">
-      <c r="H109" s="31" t="s">
+      <c r="H109" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I109" s="19" t="s">
+      <c r="I109" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J109" s="22" t="s">
+      <c r="J109" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="8:10">
-      <c r="H110" s="31" t="s">
+    <row r="110" ht="41.4" spans="8:10">
+      <c r="H110" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I110" s="19" t="s">
+      <c r="I110" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J110" s="22" t="s">
+      <c r="J110" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111" ht="27" spans="8:10">
-      <c r="H111" s="31" t="s">
+    <row r="111" ht="41.4" spans="8:10">
+      <c r="H111" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I111" s="19" t="s">
+      <c r="I111" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="J111" s="22" t="s">
+      <c r="J111" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="8:10">
-      <c r="H112" s="31" t="s">
+    <row r="112" ht="41.4" spans="8:10">
+      <c r="H112" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I112" s="19" t="s">
+      <c r="I112" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="J112" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="113" ht="40.5" spans="1:10">
-      <c r="A113" s="9" t="str">
+    <row r="113" ht="55.2" spans="1:10">
+      <c r="A113" s="8" t="str">
         <f>TEXT(IF(B113="","",COUNTA($B$1:B113)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0024</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="11">
         <v>43315</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G113" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J113" s="11" t="s">
+      <c r="J113" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="114" spans="8:10">
-      <c r="H114" s="31" t="s">
+      <c r="H114" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I114" s="19" t="s">
+      <c r="I114" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J114" s="19" t="s">
+      <c r="J114" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="8:10">
-      <c r="H115" s="31" t="s">
+    <row r="115" ht="27.6" spans="8:10">
+      <c r="H115" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I115" s="19" t="s">
+      <c r="I115" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="J115" s="19"/>
-    </row>
-    <row r="116" ht="27" spans="8:10">
-      <c r="H116" s="31" t="s">
+      <c r="J115" s="17"/>
+    </row>
+    <row r="116" ht="41.4" spans="8:10">
+      <c r="H116" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I116" s="19" t="s">
+      <c r="I116" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J116" s="19" t="s">
+      <c r="J116" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117" ht="40.5" spans="1:10">
-      <c r="A117" s="9" t="str">
+    <row r="117" ht="55.2" spans="1:10">
+      <c r="A117" s="8" t="str">
         <f>TEXT(IF(B117="","",COUNTA($B$1:B117)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0025</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="11">
         <v>43315</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G117" s="11" t="s">
+      <c r="G117" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H117" s="14" t="s">
+      <c r="H117" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="I117" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118" spans="8:10">
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J118" s="19" t="s">
+      <c r="J118" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" ht="27" spans="8:10">
-      <c r="H119" s="31" t="s">
+    <row r="119" ht="27.6" spans="8:10">
+      <c r="H119" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I119" s="19" t="s">
+      <c r="I119" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="J119" s="19"/>
-    </row>
-    <row r="120" ht="27" spans="8:10">
-      <c r="H120" s="31" t="s">
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" ht="27.6" spans="8:10">
+      <c r="H120" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I120" s="19" t="s">
+      <c r="I120" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J120" s="19" t="s">
+      <c r="J120" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="121" ht="40.5" spans="1:10">
-      <c r="A121" s="9" t="str">
+    <row r="121" ht="55.2" spans="1:10">
+      <c r="A121" s="8" t="str">
         <f>TEXT(IF(B121="","",COUNTA($B$1:B121)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0026</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="11">
         <v>43315</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J121" s="11" t="s">
+      <c r="J121" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="122" spans="8:10">
-      <c r="H122" s="31" t="s">
+      <c r="H122" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I122" s="19" t="s">
+      <c r="I122" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="J122" s="19" t="s">
+      <c r="J122" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="123" spans="8:10">
-      <c r="H123" s="31" t="s">
+      <c r="H123" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="J123" s="19"/>
-    </row>
-    <row r="124" ht="27" spans="8:10">
-      <c r="H124" s="31" t="s">
+      <c r="J123" s="17"/>
+    </row>
+    <row r="124" ht="27.6" spans="8:10">
+      <c r="H124" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I124" s="19" t="s">
+      <c r="I124" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="J124" s="19" t="s">
+      <c r="J124" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="125" ht="40.5" spans="1:10">
-      <c r="A125" s="9" t="str">
+    <row r="125" ht="55.2" spans="1:10">
+      <c r="A125" s="8" t="str">
         <f>TEXT(IF(B125="","",COUNTA($B$1:B125)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0027</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="11">
         <v>43315</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E125" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F125" s="13" t="s">
+      <c r="F125" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H125" s="14" t="s">
+      <c r="H125" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J125" s="11" t="s">
+      <c r="J125" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="8:10">
-      <c r="H126" s="31" t="s">
+    <row r="126" ht="27.6" spans="8:10">
+      <c r="H126" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="127" spans="8:10">
-      <c r="H127" s="31" t="s">
+      <c r="H127" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="I127" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J127" s="6" t="s">
+      <c r="J127" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="128" spans="8:10">
-      <c r="H128" s="31" t="s">
+      <c r="H128" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I128" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="J128" s="6" t="s">
+      <c r="J128" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" ht="40.5" spans="1:10">
-      <c r="A129" s="9" t="str">
+    <row r="129" ht="55.2" spans="1:10">
+      <c r="A129" s="8" t="str">
         <f>TEXT(IF(B129="","",COUNTA($B$1:B129)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0028</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="11">
         <v>43315</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="I129" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="8:10">
-      <c r="H130" s="31" t="s">
+    <row r="130" ht="27.6" spans="8:10">
+      <c r="H130" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I130" s="19" t="s">
+      <c r="I130" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J130" s="19" t="s">
+      <c r="J130" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="131" spans="8:10">
-      <c r="H131" s="31" t="s">
+      <c r="H131" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I131" s="19" t="s">
+      <c r="I131" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J131" s="19" t="s">
+      <c r="J131" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="132" ht="40.5" spans="8:10">
-      <c r="H132" s="31" t="s">
+    <row r="132" ht="55.2" spans="8:10">
+      <c r="H132" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I132" s="19" t="s">
+      <c r="I132" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J132" s="19" t="s">
+      <c r="J132" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="133" ht="54" spans="1:10">
-      <c r="A133" s="9" t="str">
+    <row r="133" ht="55.2" spans="1:10">
+      <c r="A133" s="8" t="str">
         <f>TEXT(IF(B133="","",COUNTA($B$1:B133)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0029</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="11">
         <v>43315</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H133" s="14" t="s">
+      <c r="H133" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I133" s="11" t="s">
+      <c r="I133" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="134" ht="27" spans="8:10">
-      <c r="H134" s="31" t="s">
+    <row r="134" ht="41.4" spans="8:10">
+      <c r="H134" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I134" s="19" t="s">
+      <c r="I134" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="J134" s="19" t="s">
+      <c r="J134" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135" ht="54" spans="1:10">
-      <c r="A135" s="9" t="str">
+    <row r="135" ht="69" spans="1:10">
+      <c r="A135" s="8" t="str">
         <f>TEXT(IF(B135="","",COUNTA($B$1:B135)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0030</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="11">
         <v>43315</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F135" s="13" t="s">
+      <c r="F135" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="14" t="s">
+      <c r="H135" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I135" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J135" s="11" t="s">
+      <c r="J135" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="8:10">
-      <c r="H136" s="31" t="s">
+    <row r="136" ht="27.6" spans="8:10">
+      <c r="H136" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="J136" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="137" spans="8:10">
-      <c r="H137" s="31" t="s">
+      <c r="H137" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I137" s="19" t="s">
+      <c r="I137" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J137" s="19" t="s">
+      <c r="J137" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="8:10">
-      <c r="H138" s="31" t="s">
+    <row r="138" ht="27.6" spans="8:10">
+      <c r="H138" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I138" s="19" t="s">
+      <c r="I138" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J138" s="19" t="s">
+      <c r="J138" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="139" ht="27" spans="8:10">
-      <c r="H139" s="31" t="s">
+    <row r="139" ht="41.4" spans="8:10">
+      <c r="H139" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I139" s="19" t="s">
+      <c r="I139" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J139" s="19" t="s">
+      <c r="J139" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="140" ht="54" spans="1:10">
-      <c r="A140" s="9" t="str">
+    <row r="140" ht="69" spans="1:10">
+      <c r="A140" s="8" t="str">
         <f>TEXT(IF(B140="","",COUNTA($B$1:B144)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0031</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="11">
         <v>43315</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F140" s="13" t="s">
+      <c r="F140" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H140" s="14" t="s">
+      <c r="H140" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J140" s="11" t="s">
+      <c r="J140" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="8:10">
-      <c r="H141" s="31" t="s">
+    <row r="141" ht="27.6" spans="8:10">
+      <c r="H141" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I141" s="19" t="s">
+      <c r="I141" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J141" s="19" t="s">
+      <c r="J141" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="142" spans="8:10">
-      <c r="H142" s="31" t="s">
+      <c r="H142" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I142" s="19" t="s">
+      <c r="I142" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J142" s="19" t="s">
+      <c r="J142" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="8:10">
-      <c r="H143" s="31" t="s">
+    <row r="143" ht="27.6" spans="8:10">
+      <c r="H143" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I143" s="19" t="s">
+      <c r="I143" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J143" s="19" t="s">
+      <c r="J143" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="144" ht="27" spans="8:10">
-      <c r="H144" s="31" t="s">
+    <row r="144" ht="41.4" spans="8:10">
+      <c r="H144" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I144" s="19" t="s">
+      <c r="I144" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J144" s="19" t="s">
+      <c r="J144" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="145" ht="54" spans="1:10">
-      <c r="A145" s="9" t="str">
+    <row r="145" ht="55.2" spans="1:10">
+      <c r="A145" s="8" t="str">
         <f>TEXT(IF(B145="","",COUNTA($B$1:B145)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0032</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="11">
         <v>43315</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F145" s="13" t="s">
+      <c r="F145" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="G145" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="I145" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J145" s="11" t="s">
+      <c r="J145" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="8:10">
-      <c r="H146" s="31" t="s">
+    <row r="146" ht="27.6" spans="8:10">
+      <c r="H146" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I146" s="19" t="s">
+      <c r="I146" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J146" s="19" t="s">
+      <c r="J146" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="147" spans="8:10">
-      <c r="H147" s="31" t="s">
+      <c r="H147" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I147" s="19" t="s">
+      <c r="I147" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J147" s="19" t="s">
+      <c r="J147" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="8:10">
-      <c r="H148" s="31" t="s">
+    <row r="148" ht="27.6" spans="8:10">
+      <c r="H148" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I148" s="19" t="s">
+      <c r="I148" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J148" s="19" t="s">
+      <c r="J148" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="149" spans="8:10">
-      <c r="H149" s="31" t="s">
+      <c r="H149" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I149" s="19" t="s">
+      <c r="I149" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="J149" s="19"/>
-    </row>
-    <row r="150" spans="8:10">
-      <c r="H150" s="31" t="s">
+      <c r="J149" s="17"/>
+    </row>
+    <row r="150" ht="27.6" spans="8:10">
+      <c r="H150" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I150" s="6" t="s">
+      <c r="I150" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="151" ht="54" spans="1:10">
-      <c r="A151" s="9" t="str">
+    <row r="151" ht="55.2" spans="1:10">
+      <c r="A151" s="8" t="str">
         <f>TEXT(IF(B151="","",COUNTA($B$1:B151)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0033</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="11">
         <v>43315</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F151" s="13" t="s">
+      <c r="F151" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J151" s="11" t="s">
+      <c r="J151" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="8:10">
-      <c r="H152" s="31" t="s">
+    <row r="152" ht="27.6" spans="8:10">
+      <c r="H152" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="I152" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J152" s="19" t="s">
+      <c r="J152" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="153" spans="8:10">
-      <c r="H153" s="31" t="s">
+      <c r="H153" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I153" s="19" t="s">
+      <c r="I153" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J153" s="19" t="s">
+      <c r="J153" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="8:10">
-      <c r="H154" s="31" t="s">
+    <row r="154" ht="27.6" spans="8:10">
+      <c r="H154" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I154" s="19" t="s">
+      <c r="I154" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J154" s="19" t="s">
+      <c r="J154" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="155" spans="8:10">
-      <c r="H155" s="31" t="s">
+      <c r="H155" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I155" s="19" t="s">
+      <c r="I155" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J155" s="19"/>
-    </row>
-    <row r="156" spans="8:10">
-      <c r="H156" s="31" t="s">
+      <c r="J155" s="17"/>
+    </row>
+    <row r="156" ht="27.6" spans="8:10">
+      <c r="H156" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I156" s="6" t="s">
+      <c r="I156" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J156" s="6" t="s">
+      <c r="J156" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="157" ht="40.5" spans="1:10">
-      <c r="A157" s="9" t="str">
+    <row r="157" ht="55.2" spans="1:10">
+      <c r="A157" s="8" t="str">
         <f>TEXT(IF(B157="","",COUNTA($B$1:B157)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0034</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="11">
         <v>43315</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F157" s="13" t="s">
+      <c r="F157" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G157" s="11" t="s">
+      <c r="G157" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="I157" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J157" s="11" t="s">
+      <c r="J157" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="158" spans="8:10">
-      <c r="H158" s="31" t="s">
+    <row r="158" ht="27.6" spans="8:10">
+      <c r="H158" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I158" s="19" t="s">
+      <c r="I158" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J158" s="19" t="s">
+      <c r="J158" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="159" spans="8:10">
-      <c r="H159" s="31" t="s">
+      <c r="H159" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I159" s="19" t="s">
+      <c r="I159" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J159" s="19" t="s">
+      <c r="J159" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="8:10">
-      <c r="H160" s="31" t="s">
+    <row r="160" ht="27.6" spans="8:10">
+      <c r="H160" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I160" s="19" t="s">
+      <c r="I160" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J160" s="19" t="s">
+      <c r="J160" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="161" spans="8:10">
-      <c r="H161" s="31" t="s">
+      <c r="H161" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I161" s="19" t="s">
+      <c r="I161" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J161" s="19"/>
-    </row>
-    <row r="162" spans="8:10">
-      <c r="H162" s="31" t="s">
+      <c r="J161" s="17"/>
+    </row>
+    <row r="162" ht="27.6" spans="8:10">
+      <c r="H162" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I162" s="6" t="s">
+      <c r="I162" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J162" s="6" t="s">
+      <c r="J162" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="163" spans="8:9">
-      <c r="H163" s="31" t="s">
+      <c r="H163" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I163" s="6" t="s">
+      <c r="I163" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="164" ht="40.5" spans="8:10">
-      <c r="H164" s="31" t="s">
+    <row r="164" ht="41.4" spans="8:10">
+      <c r="H164" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I164" s="19" t="s">
+      <c r="I164" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J164" s="19" t="s">
+      <c r="J164" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="165" ht="40.5" spans="1:10">
-      <c r="A165" s="9" t="str">
+    <row r="165" ht="55.2" spans="1:10">
+      <c r="A165" s="8" t="str">
         <f>TEXT(IF(B165="","",COUNTA($B$1:B165)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0035</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="11">
         <v>43315</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E165" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F165" s="13" t="s">
+      <c r="F165" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="G165" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I165" s="11" t="s">
+      <c r="I165" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J165" s="11" t="s">
+      <c r="J165" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="166" spans="8:10">
-      <c r="H166" s="31" t="s">
+    <row r="166" ht="27.6" spans="8:10">
+      <c r="H166" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I166" s="19" t="s">
+      <c r="I166" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J166" s="19" t="s">
+      <c r="J166" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="167" spans="8:10">
-      <c r="H167" s="31" t="s">
+      <c r="H167" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I167" s="19" t="s">
+      <c r="I167" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J167" s="19" t="s">
+      <c r="J167" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="8:10">
-      <c r="H168" s="31" t="s">
+    <row r="168" ht="27.6" spans="8:10">
+      <c r="H168" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I168" s="19" t="s">
+      <c r="I168" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J168" s="19" t="s">
+      <c r="J168" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="169" spans="8:10">
-      <c r="H169" s="31" t="s">
+      <c r="H169" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I169" s="19" t="s">
+      <c r="I169" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J169" s="19"/>
-    </row>
-    <row r="170" spans="8:10">
-      <c r="H170" s="31" t="s">
+      <c r="J169" s="17"/>
+    </row>
+    <row r="170" ht="27.6" spans="8:10">
+      <c r="H170" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I170" s="6" t="s">
+      <c r="I170" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J170" s="6" t="s">
+      <c r="J170" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="171" spans="8:9">
-      <c r="H171" s="31" t="s">
+      <c r="H171" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I171" s="6" t="s">
+      <c r="I171" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" ht="40.5" spans="8:10">
-      <c r="H172" s="31" t="s">
+    <row r="172" ht="41.4" spans="8:10">
+      <c r="H172" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I172" s="19" t="s">
+      <c r="I172" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J172" s="19" t="s">
+      <c r="J172" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="173" ht="40.5" spans="1:10">
-      <c r="A173" s="9" t="str">
+    <row r="173" ht="55.2" spans="1:10">
+      <c r="A173" s="8" t="str">
         <f>TEXT(IF(B173="","",COUNTA($B$1:B173)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0036</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="11">
         <v>43315</v>
       </c>
-      <c r="E173" s="10" t="s">
+      <c r="E173" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F173" s="13" t="s">
+      <c r="F173" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G173" s="11" t="s">
+      <c r="G173" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H173" s="14" t="s">
+      <c r="H173" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I173" s="11" t="s">
+      <c r="I173" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J173" s="11" t="s">
+      <c r="J173" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="174" spans="8:10">
-      <c r="H174" s="31" t="s">
+    <row r="174" ht="27.6" spans="8:10">
+      <c r="H174" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I174" s="19" t="s">
+      <c r="I174" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J174" s="19" t="s">
+      <c r="J174" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="175" spans="8:10">
-      <c r="H175" s="31" t="s">
+      <c r="H175" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I175" s="19" t="s">
+      <c r="I175" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J175" s="19" t="s">
+      <c r="J175" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="176" ht="27" spans="8:10">
-      <c r="H176" s="31" t="s">
+    <row r="176" ht="27.6" spans="8:10">
+      <c r="H176" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I176" s="19" t="s">
+      <c r="I176" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="J176" s="19" t="s">
+      <c r="J176" s="17" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="177" spans="8:10">
-      <c r="H177" s="31" t="s">
+      <c r="H177" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I177" s="19" t="s">
+      <c r="I177" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J177" s="19"/>
-    </row>
-    <row r="178" spans="8:10">
-      <c r="H178" s="31" t="s">
+      <c r="J177" s="17"/>
+    </row>
+    <row r="178" ht="27.6" spans="8:10">
+      <c r="H178" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I178" s="6" t="s">
+      <c r="I178" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J178" s="6" t="s">
+      <c r="J178" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="179" spans="8:9">
-      <c r="H179" s="31" t="s">
+      <c r="H179" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I179" s="6" t="s">
+      <c r="I179" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="180" ht="27" spans="8:10">
-      <c r="H180" s="31" t="s">
+    <row r="180" ht="41.4" spans="8:10">
+      <c r="H180" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I180" s="19" t="s">
+      <c r="I180" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J180" s="19" t="s">
+      <c r="J180" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="181" ht="40.5" spans="1:10">
-      <c r="A181" s="9" t="str">
+    <row r="181" ht="55.2" spans="1:10">
+      <c r="A181" s="8" t="str">
         <f>TEXT(IF(B181="","",COUNTA($B$1:B181)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0037</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="11">
         <v>43315</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F181" s="13" t="s">
+      <c r="F181" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G181" s="11" t="s">
+      <c r="G181" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H181" s="14" t="s">
+      <c r="H181" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I181" s="11" t="s">
+      <c r="I181" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J181" s="11" t="s">
+      <c r="J181" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="8:10">
-      <c r="H182" s="31" t="s">
+    <row r="182" ht="27.6" spans="8:10">
+      <c r="H182" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I182" s="19" t="s">
+      <c r="I182" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J182" s="19" t="s">
+      <c r="J182" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="8:10">
-      <c r="H183" s="31" t="s">
+      <c r="H183" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I183" s="19" t="s">
+      <c r="I183" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J183" s="19" t="s">
+      <c r="J183" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="8:10">
-      <c r="H184" s="31" t="s">
+    <row r="184" ht="27.6" spans="8:10">
+      <c r="H184" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I184" s="19" t="s">
+      <c r="I184" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J184" s="19" t="s">
+      <c r="J184" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="185" spans="8:10">
-      <c r="H185" s="31" t="s">
+      <c r="H185" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I185" s="19" t="s">
+      <c r="I185" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J185" s="19"/>
-    </row>
-    <row r="186" spans="8:10">
-      <c r="H186" s="31" t="s">
+      <c r="J185" s="17"/>
+    </row>
+    <row r="186" ht="27.6" spans="8:10">
+      <c r="H186" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I186" s="6" t="s">
+      <c r="I186" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J186" s="6" t="s">
+      <c r="J186" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="187" spans="8:9">
-      <c r="H187" s="31" t="s">
+      <c r="H187" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I187" s="6" t="s">
+      <c r="I187" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="188" ht="40.5" spans="8:10">
-      <c r="H188" s="31" t="s">
+    <row r="188" ht="41.4" spans="8:10">
+      <c r="H188" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I188" s="19" t="s">
+      <c r="I188" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J188" s="19" t="s">
+      <c r="J188" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="189" ht="40.5" spans="1:10">
-      <c r="A189" s="9" t="str">
+    <row r="189" ht="55.2" spans="1:10">
+      <c r="A189" s="8" t="str">
         <f>TEXT(IF(B189="","",COUNTA($B$1:B189)-1+0),"!D!Z!L!S!H!Y0000")</f>
         <v>DZLSHY0038</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="11">
         <v>43315</v>
       </c>
-      <c r="E189" s="10" t="s">
+      <c r="E189" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F189" s="13" t="s">
+      <c r="F189" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="G189" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H189" s="14" t="s">
+      <c r="H189" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I189" s="11" t="s">
+      <c r="I189" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J189" s="11" t="s">
+      <c r="J189" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="190" spans="8:10">
-      <c r="H190" s="31" t="s">
+    <row r="190" ht="27.6" spans="8:10">
+      <c r="H190" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I190" s="19" t="s">
+      <c r="I190" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J190" s="19" t="s">
+      <c r="J190" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="191" spans="8:10">
-      <c r="H191" s="31" t="s">
+      <c r="H191" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I191" s="19" t="s">
+      <c r="I191" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="J191" s="19" t="s">
+      <c r="J191" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" spans="8:10">
-      <c r="H192" s="31" t="s">
+    <row r="192" ht="27.6" spans="8:10">
+      <c r="H192" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I192" s="19" t="s">
+      <c r="I192" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="J192" s="19" t="s">
+      <c r="J192" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="193" spans="8:10">
-      <c r="H193" s="31" t="s">
+      <c r="H193" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I193" s="19" t="s">
+      <c r="I193" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="J193" s="19"/>
-    </row>
-    <row r="194" spans="8:10">
-      <c r="H194" s="31" t="s">
+      <c r="J193" s="17"/>
+    </row>
+    <row r="194" ht="27.6" spans="8:10">
+      <c r="H194" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I194" s="6" t="s">
+      <c r="I194" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J194" s="6" t="s">
+      <c r="J194" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="195" spans="8:9">
-      <c r="H195" s="31" t="s">
+      <c r="H195" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I195" s="6" t="s">
+      <c r="I195" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="196" ht="40.5" spans="8:10">
-      <c r="H196" s="31" t="s">
+    <row r="196" ht="41.4" spans="8:10">
+      <c r="H196" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I196" s="19" t="s">
+      <c r="I196" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J196" s="19" t="s">
+      <c r="J196" s="17" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
